--- a/ats/plan ats.xlsx
+++ b/ats/plan ats.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -360,270 +360,173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>44291</v>
+        <v>44301</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <f>B1+15</f>
+        <v>26</v>
+      </c>
+      <c r="E1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44292</v>
+        <v>44302</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <f>C1+1</f>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <f>B2+15</f>
+        <v>42</v>
+      </c>
+      <c r="E2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44293</v>
+        <v>44303</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <f t="shared" ref="B3:B10" si="0">C2+1</f>
+        <v>43</v>
       </c>
       <c r="C3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C3:C10" si="1">B3+15</f>
+        <v>58</v>
+      </c>
+      <c r="E3">
+        <f>E2-E1</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>44294</v>
+        <v>44304</v>
       </c>
       <c r="B4">
-        <v>22</v>
+        <f t="shared" si="0"/>
+        <v>59</v>
       </c>
       <c r="C4">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="E4">
+        <f>E3/10</f>
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>44295</v>
+        <v>44305</v>
       </c>
       <c r="B5">
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>75</v>
       </c>
       <c r="C5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>44296</v>
+        <v>44306</v>
       </c>
       <c r="B6">
-        <v>36</v>
+        <f t="shared" si="0"/>
+        <v>91</v>
       </c>
       <c r="C6">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>44297</v>
+        <v>44307</v>
       </c>
       <c r="B7">
-        <v>43</v>
+        <f t="shared" si="0"/>
+        <v>107</v>
       </c>
       <c r="C7">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>44298</v>
+        <v>44308</v>
       </c>
       <c r="B8">
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>123</v>
       </c>
       <c r="C8">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>44299</v>
-      </c>
-      <c r="B9">
-        <v>57</v>
-      </c>
-      <c r="C9">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>44300</v>
-      </c>
-      <c r="B10">
-        <v>64</v>
-      </c>
-      <c r="C10">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>44301</v>
-      </c>
-      <c r="B11">
-        <v>71</v>
-      </c>
-      <c r="C11">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>44302</v>
-      </c>
-      <c r="B12">
-        <v>78</v>
-      </c>
-      <c r="C12">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>44303</v>
-      </c>
-      <c r="B13">
-        <v>85</v>
-      </c>
-      <c r="C13">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>44304</v>
-      </c>
-      <c r="B14">
-        <v>92</v>
-      </c>
-      <c r="C14">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>44305</v>
-      </c>
-      <c r="B15">
-        <v>99</v>
-      </c>
-      <c r="C15">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>44306</v>
-      </c>
-      <c r="B16">
-        <v>106</v>
-      </c>
-      <c r="C16">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>44307</v>
-      </c>
-      <c r="B17">
-        <v>113</v>
-      </c>
-      <c r="C17">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>44308</v>
-      </c>
-      <c r="B18">
-        <v>120</v>
-      </c>
-      <c r="C18">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>44309</v>
-      </c>
-      <c r="B19">
-        <v>127</v>
-      </c>
-      <c r="C19">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>44310</v>
-      </c>
-      <c r="B20">
-        <v>134</v>
-      </c>
-      <c r="C20">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>44311</v>
-      </c>
-      <c r="B21">
-        <v>141</v>
-      </c>
-      <c r="C21">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>44312</v>
-      </c>
+        <v>44316</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>44313</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>44314</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>44315</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>44316</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ats/plan ats.xlsx
+++ b/ats/plan ats.xlsx
@@ -15,7 +15,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -27,6 +27,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -52,10 +59,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,173 +369,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>44301</v>
-      </c>
-      <c r="B1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>44326</v>
+      </c>
+      <c r="B1" s="4">
         <v>11</v>
       </c>
-      <c r="C1">
-        <f>B1+15</f>
-        <v>26</v>
-      </c>
-      <c r="E1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C1" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44302</v>
+        <v>44327</v>
       </c>
       <c r="B2">
         <f>C1+1</f>
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C2">
-        <f>B2+15</f>
-        <v>42</v>
-      </c>
-      <c r="E2">
+        <f>B2+9</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44328</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B13" si="0">C2+1</f>
+        <v>31</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C12" si="1">B3+9</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44329</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44330</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>44331</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44332</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44333</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44334</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44335</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44336</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>44337</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44338</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+      <c r="C13">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>44303</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B10" si="0">C2+1</f>
-        <v>43</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C10" si="1">B3+15</f>
-        <v>58</v>
-      </c>
-      <c r="E3">
-        <f>E2-E1</f>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>44304</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="E4">
-        <f>E3/10</f>
-        <v>12.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>44305</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>44306</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>91</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="1"/>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>44307</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>107</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="1"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>44308</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>123</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="1"/>
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>44309</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>44310</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>44311</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>44312</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>44313</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>44314</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>44315</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>44316</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="2"/>
+        <v>44341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>44346</v>
+      </c>
+      <c r="C21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ats/plan ats.xlsx
+++ b/ats/plan ats.xlsx
@@ -13,18 +13,18 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="1">
+  <si>
+    <t>x</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -59,12 +59,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,20 +374,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3">
+      <c r="A1" s="2">
         <v>44326</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="3">
         <v>11</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="3">
         <v>20</v>
       </c>
     </row>
@@ -392,65 +395,55 @@
       <c r="A2" s="1">
         <v>44327</v>
       </c>
-      <c r="B2">
-        <f>C1+1</f>
-        <v>21</v>
-      </c>
-      <c r="C2">
-        <f>B2+9</f>
-        <v>30</v>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44328</v>
       </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B13" si="0">C2+1</f>
-        <v>31</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C12" si="1">B3+9</f>
-        <v>40</v>
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44329</v>
       </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="1"/>
-        <v>50</v>
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44330</v>
       </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="1"/>
-        <v>60</v>
+      <c r="B5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44331</v>
       </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="1"/>
-        <v>70</v>
+      <c r="B6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -458,25 +451,23 @@
         <v>44332</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
-        <v>71</v>
+        <f>C1+1</f>
+        <v>21</v>
       </c>
       <c r="C7">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44333</v>
       </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>81</v>
+      <c r="B8" s="5">
+        <v>30</v>
       </c>
       <c r="C8">
-        <f t="shared" si="1"/>
-        <v>90</v>
+        <f t="shared" ref="C8:C17" si="0">B8+9</f>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -484,12 +475,12 @@
         <v>44334</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
-        <v>91</v>
+        <f>C8+1</f>
+        <v>40</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -497,12 +488,12 @@
         <v>44335</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
-        <v>101</v>
+        <f>C9+1</f>
+        <v>50</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
-        <v>110</v>
+        <f t="shared" si="0"/>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -510,12 +501,12 @@
         <v>44336</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
-        <v>111</v>
+        <f>C10+1</f>
+        <v>60</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
-        <v>120</v>
+        <f t="shared" si="0"/>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -523,12 +514,12 @@
         <v>44337</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
-        <v>121</v>
+        <f>C11+1</f>
+        <v>70</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
-        <v>130</v>
+        <f t="shared" si="0"/>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -536,37 +527,77 @@
         <v>44338</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
-        <v>131</v>
+        <f>C12+1</f>
+        <v>80</v>
       </c>
       <c r="C13">
-        <v>138</v>
+        <f t="shared" si="0"/>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44339</v>
       </c>
+      <c r="B14">
+        <f>C13+1</f>
+        <v>90</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44340</v>
       </c>
+      <c r="B15">
+        <f>C14+1</f>
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44341</v>
       </c>
+      <c r="B16">
+        <f>C15+1</f>
+        <v>110</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44342</v>
       </c>
+      <c r="B17">
+        <f>C16+1</f>
+        <v>120</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44343</v>
       </c>
+      <c r="B18">
+        <f>C17+1</f>
+        <v>130</v>
+      </c>
+      <c r="C18">
+        <v>138</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -582,9 +613,9 @@
       <c r="A21" s="1">
         <v>44346</v>
       </c>
-      <c r="C21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>